--- a/data/raw/iso_mapping.xlsx
+++ b/data/raw/iso_mapping.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\siebert\Documents\Projekte\csink\landCSinkWealth\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BB2DA3B-7376-4AA6-8766-B55E2B93E6AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C9D5448-8791-4156-A900-57EA9223CCF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E1E8131B-A64E-4CFC-B9A2-A0CD8E57C25C}"/>
+    <workbookView xWindow="32505" yWindow="-2880" windowWidth="17280" windowHeight="8970" xr2:uid="{E1E8131B-A64E-4CFC-B9A2-A0CD8E57C25C}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="483">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="483">
   <si>
     <t>country</t>
   </si>
@@ -1865,8 +1865,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97A94B5A-4FFB-4864-8801-55561CDE887D}">
   <dimension ref="A1:E249"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D241" sqref="D241"/>
+    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
+      <selection activeCell="E158" sqref="E158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4688,15 +4688,14 @@
       <c r="B158" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="C158" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>NIU</v>
-      </c>
-      <c r="D158" s="1" t="s">
-        <v>128</v>
+      <c r="C158" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="D158" t="s">
+        <v>124</v>
       </c>
       <c r="E158" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.3">
